--- a/artfynd/A 62620-2025 artfynd.xlsx
+++ b/artfynd/A 62620-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130930173</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>130930241</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>130929811</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>130929896</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>130930038</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>130925631</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>130929660</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>130926030</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>130927174</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>130930105</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>130926976</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>130930035</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>130928099</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/artfynd/A 62620-2025 artfynd.xlsx
+++ b/artfynd/A 62620-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130930173</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>130930241</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>130929811</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>130929896</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>130930038</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>130929660</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>130926030</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>130927174</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>130930105</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>130926976</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>130928099</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/artfynd/A 62620-2025 artfynd.xlsx
+++ b/artfynd/A 62620-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130930173</v>
       </c>
       <c r="B2" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>130930241</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>130929811</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>130929896</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>130930038</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>130929660</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>130926030</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>130927174</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>130930105</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>130926976</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>130928099</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
